--- a/lendingrisk/新建 Microsoft Excel 工作表.xlsx
+++ b/lendingrisk/新建 Microsoft Excel 工作表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D6F199-4161-4801-B668-3508A2C2C1BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD00CE0-DD7C-40BD-A52F-30A4F135BB54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="139">
   <si>
     <t>column</t>
   </si>
@@ -444,6 +444,10 @@
   </si>
   <si>
     <t>subGrade_earliesCreditLine_month</t>
+  </si>
+  <si>
+    <t>重要特征+四则运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -528,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,21 +547,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,13 +849,13 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="6.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
@@ -1552,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F2285A-0580-4E4D-8803-3C6614005D3B}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1567,29 +1574,37 @@
     <col min="7" max="7" width="8.88671875" style="1"/>
     <col min="10" max="10" width="32.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="32.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="22.8">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="22.8">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
@@ -1608,9 +1623,15 @@
       <c r="K2" s="1">
         <v>9.8673178168595499E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="6" t="s">
+      <c r="N2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="1">
+        <v>9.8673178168595499E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1619,7 +1640,7 @@
       <c r="C3" s="1">
         <v>0.15687483999999999</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>130</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1634,16 +1655,25 @@
       <c r="K3" s="1">
         <v>8.6779473260664E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6"/>
+      <c r="M3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="1">
+        <v>8.6779473260664E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="1">
         <v>0.10904612</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1" t="s">
         <v>87</v>
       </c>
@@ -1656,16 +1686,23 @@
       <c r="K4" s="1">
         <v>8.3156358646470196E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8.3156358646470196E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1.7676646000000001E-2</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="1" t="s">
         <v>88</v>
       </c>
@@ -1678,16 +1715,23 @@
       <c r="K5" s="1">
         <v>7.7924457655247206E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="6"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="1">
+        <v>7.7924457655247206E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="1">
         <v>1.5471423E-2</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1700,16 +1744,23 @@
       <c r="K6" s="1">
         <v>5.8626868320961603E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="6"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5.8626868320961603E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="1">
         <v>1.4887176E-2</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1722,16 +1773,23 @@
       <c r="K7" s="1">
         <v>4.6898540701750799E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O7" s="1">
+        <v>4.6898540701750799E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>1.3480304E-2</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="1" t="s">
         <v>89</v>
       </c>
@@ -1744,16 +1802,23 @@
       <c r="K8" s="1">
         <v>4.5084838918122899E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="6"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4.5084838918122899E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>1.3272760999999999E-2</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1766,16 +1831,23 @@
       <c r="K9" s="1">
         <v>4.2568888878130998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="6"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4.2568888878130998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="1">
         <v>1.2245466E-2</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>90</v>
       </c>
@@ -1788,8 +1860,15 @@
       <c r="K10" s="1">
         <v>4.0034278152206802E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="10"/>
+      <c r="N10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4.0034278152206802E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
@@ -1808,8 +1887,14 @@
       <c r="K11" s="1">
         <v>3.8139901054839102E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.8139901054839102E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="B12" s="1" t="s">
         <v>91</v>
       </c>
@@ -1828,8 +1913,14 @@
       <c r="K12" s="1">
         <v>3.3271230425157602E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="N12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3.3271230425157602E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="B13" s="1" t="s">
         <v>92</v>
       </c>
@@ -1848,9 +1939,15 @@
       <c r="K13" s="1">
         <v>2.93445225306222E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7">
+      <c r="N13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.93445225306222E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="11">
         <v>0.73441130689071998</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1859,7 +1956,7 @@
       <c r="C14" s="1">
         <v>6.3687893999999998E-3</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="12">
         <v>0.73510656551536202</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1874,16 +1971,25 @@
       <c r="K14" s="1">
         <v>2.6720790086233299E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="7"/>
+      <c r="M14" s="12">
+        <v>0.72997009436355098</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.6720790086233299E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>6.3161880000000004E-3</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>96</v>
       </c>
@@ -1896,16 +2002,23 @@
       <c r="K15" s="1">
         <v>2.6108165300773999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="7"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2.6108165300773999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>6.0761160000000003E-3</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1918,16 +2031,23 @@
       <c r="K16" s="1">
         <v>2.24612101712004E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2.24612101712004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="1">
         <v>6.0167494000000002E-3</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1940,16 +2060,23 @@
       <c r="K17" s="1">
         <v>2.0578158165285802E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.0578158165285802E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="1">
         <v>5.856338E-3</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1962,16 +2089,23 @@
       <c r="K18" s="1">
         <v>1.8603863970834401E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.8603863970834401E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="1">
         <v>5.7501499999999999E-3</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1984,16 +2118,23 @@
       <c r="K19" s="1">
         <v>1.6565634807779901E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="7"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.6565634807779901E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1">
         <v>5.6187412999999997E-3</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="1" t="s">
         <v>94</v>
       </c>
@@ -2006,8 +2147,15 @@
       <c r="K20" s="1">
         <v>1.5240059612740499E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="12"/>
+      <c r="N20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.5240059612740499E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="B21" s="1" t="s">
         <v>95</v>
       </c>
@@ -2026,8 +2174,17 @@
       <c r="K21" s="1">
         <v>1.45933149076039E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="9">
+        <v>0.72777140027012199</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.45933149076039E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2046,8 +2203,15 @@
       <c r="K22" s="1">
         <v>1.2850105397304299E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="9"/>
+      <c r="N22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.2850105397304299E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2066,8 +2230,15 @@
       <c r="K23" s="1">
         <v>1.14794267665998E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="9"/>
+      <c r="N23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.14794267665998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2086,8 +2257,15 @@
       <c r="K24" s="1">
         <v>1.0891291274876201E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="9"/>
+      <c r="N24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.0891291274876201E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="B25" s="1" t="s">
         <v>96</v>
       </c>
@@ -2106,8 +2284,15 @@
       <c r="K25" s="1">
         <v>1.02821238073545E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="9"/>
+      <c r="N25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.02821238073545E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -2126,8 +2311,14 @@
       <c r="K26" s="1">
         <v>8.5567508272799304E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <v>8.5567508272799304E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="B27" s="1" t="s">
         <v>97</v>
       </c>
@@ -2146,8 +2337,14 @@
       <c r="K27" s="1">
         <v>7.5007017638108698E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O27" s="1">
+        <v>7.5007017638108698E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
@@ -2166,8 +2363,14 @@
       <c r="K28" s="1">
         <v>7.4980215793558E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="N28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O28" s="1">
+        <v>7.4980215793558E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2389,14 @@
       <c r="K29" s="1">
         <v>6.4312917421365298E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="N29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="1">
+        <v>6.4312917421365298E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
@@ -2206,8 +2415,14 @@
       <c r="K30" s="1">
         <v>6.1846142556482298E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O30" s="1">
+        <v>6.1846142556482298E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
@@ -2226,8 +2441,14 @@
       <c r="K31" s="1">
         <v>5.9499531544695604E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31" s="1">
+        <v>5.9499531544695604E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -2246,8 +2467,14 @@
       <c r="K32" s="1">
         <v>5.22523528657526E-3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11">
+      <c r="N32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O32" s="1">
+        <v>5.22523528657526E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
       <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
@@ -2266,8 +2493,14 @@
       <c r="K33" s="1">
         <v>4.8290423475109102E-3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11">
+      <c r="N33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="1">
+        <v>4.8290423475109102E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
@@ -2286,8 +2519,14 @@
       <c r="K34" s="1">
         <v>4.7608508321124003E-3</v>
       </c>
-    </row>
-    <row r="35" spans="2:11">
+      <c r="N34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4.7608508321124003E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
       <c r="B35" s="1" t="s">
         <v>99</v>
       </c>
@@ -2306,8 +2545,14 @@
       <c r="K35" s="1">
         <v>4.4709469957222E-3</v>
       </c>
-    </row>
-    <row r="36" spans="2:11">
+      <c r="N35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="1">
+        <v>4.4709469957222E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
@@ -2326,8 +2571,14 @@
       <c r="K36" s="1">
         <v>4.2126609671110796E-3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11">
+      <c r="N36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4.2126609671110796E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2346,8 +2597,14 @@
       <c r="K37" s="1">
         <v>3.82032053671176E-3</v>
       </c>
-    </row>
-    <row r="38" spans="2:11">
+      <c r="N37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3.82032053671176E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
       <c r="B38" s="1" t="s">
         <v>100</v>
       </c>
@@ -2366,8 +2623,14 @@
       <c r="K38" s="1">
         <v>3.6729762847547902E-3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11">
+      <c r="N38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O38" s="1">
+        <v>3.6729762847547902E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
@@ -2386,8 +2649,14 @@
       <c r="K39" s="1">
         <v>3.1816998387259798E-3</v>
       </c>
-    </row>
-    <row r="40" spans="2:11">
+      <c r="N39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" s="1">
+        <v>3.1816998387259798E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15">
       <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
@@ -2406,8 +2675,14 @@
       <c r="K40" s="1">
         <v>3.1547840779683699E-3</v>
       </c>
-    </row>
-    <row r="41" spans="2:11">
+      <c r="N40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O40" s="1">
+        <v>3.1547840779683699E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15">
       <c r="B41" s="1" t="s">
         <v>101</v>
       </c>
@@ -2426,8 +2701,14 @@
       <c r="K41" s="1">
         <v>3.0060660086664299E-3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11">
+      <c r="N41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="1">
+        <v>3.0060660086664299E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
@@ -2446,8 +2727,14 @@
       <c r="K42" s="1">
         <v>2.8754968043992802E-3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11">
+      <c r="N42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O42" s="1">
+        <v>2.8754968043992802E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15">
       <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
@@ -2466,8 +2753,14 @@
       <c r="K43" s="1">
         <v>2.65798247154646E-3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11">
+      <c r="N43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="1">
+        <v>2.65798247154646E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
       <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
@@ -2486,8 +2779,14 @@
       <c r="K44" s="1">
         <v>2.37332351412638E-3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11">
+      <c r="N44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2.37332351412638E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
       <c r="B45" s="1" t="s">
         <v>103</v>
       </c>
@@ -2506,8 +2805,14 @@
       <c r="K45" s="1">
         <v>2.28007814404773E-3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11">
+      <c r="N45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O45" s="1">
+        <v>2.28007814404773E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
       <c r="B46" s="1" t="s">
         <v>40</v>
       </c>
@@ -2526,8 +2831,14 @@
       <c r="K46" s="1">
         <v>1.5133987702904701E-3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11">
+      <c r="N46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1.5133987702904701E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15">
       <c r="B47" s="1" t="s">
         <v>13</v>
       </c>
@@ -2546,8 +2857,14 @@
       <c r="K47" s="1">
         <v>1.37881417893978E-3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11">
+      <c r="N47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1.37881417893978E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
       <c r="B48" s="1" t="s">
         <v>104</v>
       </c>
@@ -2566,8 +2883,14 @@
       <c r="K48" s="1">
         <v>1.3776055730806301E-3</v>
       </c>
-    </row>
-    <row r="49" spans="2:11">
+      <c r="N48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1.3776055730806301E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
       <c r="B49" s="1" t="s">
         <v>36</v>
       </c>
@@ -2586,8 +2909,14 @@
       <c r="K49" s="1">
         <v>1.3479291678990899E-3</v>
       </c>
-    </row>
-    <row r="50" spans="2:11">
+      <c r="N49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1.3479291678990899E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
       <c r="B50" s="1" t="s">
         <v>105</v>
       </c>
@@ -2606,8 +2935,14 @@
       <c r="K50" s="1">
         <v>1.2963268928172301E-3</v>
       </c>
-    </row>
-    <row r="51" spans="2:11">
+      <c r="N50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1.2963268928172301E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15">
       <c r="B51" s="1" t="s">
         <v>106</v>
       </c>
@@ -2626,8 +2961,14 @@
       <c r="K51" s="1">
         <v>1.17926565616092E-3</v>
       </c>
-    </row>
-    <row r="52" spans="2:11">
+      <c r="N51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1.17926565616092E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
       <c r="B52" s="1" t="s">
         <v>107</v>
       </c>
@@ -2646,8 +2987,14 @@
       <c r="K52" s="1">
         <v>1.1258007210548601E-3</v>
       </c>
-    </row>
-    <row r="53" spans="2:11">
+      <c r="N52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1.1258007210548601E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15">
       <c r="B53" s="1" t="s">
         <v>34</v>
       </c>
@@ -2666,8 +3013,14 @@
       <c r="K53" s="1">
         <v>1.1204825238271599E-3</v>
       </c>
-    </row>
-    <row r="54" spans="2:11">
+      <c r="N53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1.1204825238271599E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15">
       <c r="B54" s="1" t="s">
         <v>108</v>
       </c>
@@ -2686,8 +3039,14 @@
       <c r="K54" s="1">
         <v>1.09800068494767E-3</v>
       </c>
-    </row>
-    <row r="55" spans="2:11">
+      <c r="N54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1.09800068494767E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
       <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
@@ -2706,8 +3065,14 @@
       <c r="K55" s="1">
         <v>1.0450280756490601E-3</v>
       </c>
-    </row>
-    <row r="56" spans="2:11">
+      <c r="N55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1.0450280756490601E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
       <c r="B56" s="1" t="s">
         <v>24</v>
       </c>
@@ -2726,8 +3091,14 @@
       <c r="K56" s="1">
         <v>9.0781902255436802E-4</v>
       </c>
-    </row>
-    <row r="57" spans="2:11">
+      <c r="N56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O56" s="1">
+        <v>9.0781902255436802E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
       <c r="B57" s="1" t="s">
         <v>30</v>
       </c>
@@ -2746,8 +3117,14 @@
       <c r="K57" s="1">
         <v>8.3405128569139495E-4</v>
       </c>
-    </row>
-    <row r="58" spans="2:11">
+      <c r="N57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O57" s="1">
+        <v>8.3405128569139495E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15">
       <c r="B58" s="1" t="s">
         <v>110</v>
       </c>
@@ -2766,8 +3143,14 @@
       <c r="K58" s="1">
         <v>8.2085504013686898E-4</v>
       </c>
-    </row>
-    <row r="59" spans="2:11">
+      <c r="N58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O58" s="1">
+        <v>8.2085504013686898E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
       <c r="B59" s="1" t="s">
         <v>111</v>
       </c>
@@ -2786,8 +3169,14 @@
       <c r="K59" s="1">
         <v>7.0603126230597E-4</v>
       </c>
-    </row>
-    <row r="60" spans="2:11">
+      <c r="N59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O59" s="1">
+        <v>7.0603126230597E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
       <c r="B60" s="1" t="s">
         <v>38</v>
       </c>
@@ -2806,8 +3195,14 @@
       <c r="K60" s="1">
         <v>7.0178432757930201E-4</v>
       </c>
-    </row>
-    <row r="61" spans="2:11">
+      <c r="N60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O60" s="1">
+        <v>7.0178432757930201E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
       <c r="B61" s="1" t="s">
         <v>112</v>
       </c>
@@ -2826,8 +3221,14 @@
       <c r="K61" s="1">
         <v>6.7473319645549397E-4</v>
       </c>
-    </row>
-    <row r="62" spans="2:11">
+      <c r="N61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O61" s="1">
+        <v>6.7473319645549397E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15">
       <c r="B62" s="1" t="s">
         <v>35</v>
       </c>
@@ -2846,8 +3247,14 @@
       <c r="K62" s="1">
         <v>4.8965329212896105E-4</v>
       </c>
-    </row>
-    <row r="63" spans="2:11">
+      <c r="N62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O62" s="1">
+        <v>4.8965329212896105E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15">
       <c r="B63" s="1" t="s">
         <v>113</v>
       </c>
@@ -2866,8 +3273,14 @@
       <c r="K63" s="1">
         <v>3.0907427998951698E-4</v>
       </c>
-    </row>
-    <row r="64" spans="2:11">
+      <c r="N63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O63" s="1">
+        <v>3.0907427998951698E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15">
       <c r="B64" s="1" t="s">
         <v>29</v>
       </c>
@@ -2886,8 +3299,14 @@
       <c r="K64" s="1">
         <v>2.1257321000412699E-4</v>
       </c>
-    </row>
-    <row r="65" spans="2:11">
+      <c r="N64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O64" s="1">
+        <v>2.1257321000412699E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15">
       <c r="B65" s="1" t="s">
         <v>114</v>
       </c>
@@ -2906,8 +3325,14 @@
       <c r="K65" s="1">
         <v>2.0553549313969999E-4</v>
       </c>
-    </row>
-    <row r="66" spans="2:11">
+      <c r="N65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O65" s="1">
+        <v>2.0553549313969999E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15">
       <c r="B66" s="1" t="s">
         <v>32</v>
       </c>
@@ -2926,8 +3351,14 @@
       <c r="K66" s="1">
         <v>2.03667309217977E-4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11">
+      <c r="N66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O66" s="1">
+        <v>2.03667309217977E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15">
       <c r="B67" s="1" t="s">
         <v>33</v>
       </c>
@@ -2946,8 +3377,14 @@
       <c r="K67" s="1">
         <v>2.00049309014869E-4</v>
       </c>
-    </row>
-    <row r="68" spans="2:11">
+      <c r="N67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O67" s="1">
+        <v>2.00049309014869E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15">
       <c r="B68" s="1" t="s">
         <v>115</v>
       </c>
@@ -2966,8 +3403,14 @@
       <c r="K68" s="1">
         <v>1.99090626758362E-4</v>
       </c>
-    </row>
-    <row r="69" spans="2:11">
+      <c r="N68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1.99090626758362E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15">
       <c r="B69" s="1" t="s">
         <v>116</v>
       </c>
@@ -2986,8 +3429,14 @@
       <c r="K69" s="1">
         <v>1.7194143612262301E-4</v>
       </c>
-    </row>
-    <row r="70" spans="2:11">
+      <c r="N69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1.7194143612262301E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15">
       <c r="B70" s="1" t="s">
         <v>117</v>
       </c>
@@ -3006,8 +3455,14 @@
       <c r="K70" s="1">
         <v>1.59896334707959E-4</v>
       </c>
-    </row>
-    <row r="71" spans="2:11">
+      <c r="N70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1.59896334707959E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15">
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
@@ -3026,8 +3481,14 @@
       <c r="K71" s="1">
         <v>1.51564075683971E-4</v>
       </c>
-    </row>
-    <row r="72" spans="2:11">
+      <c r="N71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1.51564075683971E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15">
       <c r="B72" s="1" t="s">
         <v>118</v>
       </c>
@@ -3046,8 +3507,14 @@
       <c r="K72" s="1">
         <v>1.15604076875178E-4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11">
+      <c r="N72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1.15604076875178E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15">
       <c r="B73" s="1" t="s">
         <v>119</v>
       </c>
@@ -3066,8 +3533,14 @@
       <c r="K73" s="1">
         <v>1.0606935279148001E-4</v>
       </c>
-    </row>
-    <row r="74" spans="2:11">
+      <c r="N73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1.0606935279148001E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15">
       <c r="B74" s="1" t="s">
         <v>120</v>
       </c>
@@ -3083,11 +3556,17 @@
       <c r="J74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74" s="8">
         <v>9.9735733975215898E-5</v>
       </c>
-    </row>
-    <row r="75" spans="2:11">
+      <c r="N74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O74" s="8">
+        <v>9.9735733975215898E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15">
       <c r="B75" s="1" t="s">
         <v>5</v>
       </c>
@@ -3103,11 +3582,17 @@
       <c r="J75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75" s="8">
         <v>9.6105985732567703E-5</v>
       </c>
-    </row>
-    <row r="76" spans="2:11">
+      <c r="N75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O75" s="8">
+        <v>9.6105985732567703E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15">
       <c r="B76" s="1" t="s">
         <v>121</v>
       </c>
@@ -3123,11 +3608,17 @@
       <c r="J76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76" s="8">
         <v>8.9163214660205003E-5</v>
       </c>
-    </row>
-    <row r="77" spans="2:11">
+      <c r="N76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" s="8">
+        <v>8.9163214660205003E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15">
       <c r="B77" s="1" t="s">
         <v>122</v>
       </c>
@@ -3143,11 +3634,17 @@
       <c r="J77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="8">
         <v>6.8914014777124604E-5</v>
       </c>
-    </row>
-    <row r="78" spans="2:11">
+      <c r="N77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O77" s="8">
+        <v>6.8914014777124604E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15">
       <c r="B78" s="1" t="s">
         <v>123</v>
       </c>
@@ -3163,11 +3660,17 @@
       <c r="J78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78" s="8">
         <v>6.5485390175124795E-5</v>
       </c>
-    </row>
-    <row r="79" spans="2:11">
+      <c r="N78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O78" s="8">
+        <v>6.5485390175124795E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15">
       <c r="B79" s="1" t="s">
         <v>41</v>
       </c>
@@ -3183,11 +3686,17 @@
       <c r="J79" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K79" s="8">
         <v>5.3499456813694697E-5</v>
       </c>
-    </row>
-    <row r="80" spans="2:11">
+      <c r="N79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" s="8">
+        <v>5.3499456813694697E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15">
       <c r="B80" s="1" t="s">
         <v>20</v>
       </c>
@@ -3203,11 +3712,17 @@
       <c r="J80" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80" s="8">
         <v>4.5126398623228597E-5</v>
       </c>
-    </row>
-    <row r="81" spans="2:11">
+      <c r="N80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O80" s="8">
+        <v>4.5126398623228597E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15">
       <c r="B81" s="1" t="s">
         <v>124</v>
       </c>
@@ -3223,11 +3738,17 @@
       <c r="J81" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K81" s="8">
         <v>4.4684378238811502E-5</v>
       </c>
-    </row>
-    <row r="82" spans="2:11">
+      <c r="N81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O81" s="8">
+        <v>4.4684378238811502E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15">
       <c r="B82" s="1" t="s">
         <v>125</v>
       </c>
@@ -3243,11 +3764,17 @@
       <c r="J82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82" s="8">
         <v>4.1894351162908298E-5</v>
       </c>
-    </row>
-    <row r="83" spans="2:11">
+      <c r="N82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O82" s="8">
+        <v>4.1894351162908298E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15">
       <c r="B83" s="1" t="s">
         <v>126</v>
       </c>
@@ -3263,11 +3790,17 @@
       <c r="J83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K83" s="8">
         <v>3.8555757383926103E-5</v>
       </c>
-    </row>
-    <row r="84" spans="2:11">
+      <c r="N83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O83" s="8">
+        <v>3.8555757383926103E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15">
       <c r="B84" s="1" t="s">
         <v>2</v>
       </c>
@@ -3283,11 +3816,17 @@
       <c r="J84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="8">
         <v>3.4686304394441903E-5</v>
       </c>
-    </row>
-    <row r="85" spans="2:11">
+      <c r="N84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O84" s="8">
+        <v>3.4686304394441903E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15">
       <c r="B85" s="1" t="s">
         <v>45</v>
       </c>
@@ -3303,11 +3842,17 @@
       <c r="J85" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K85" s="8">
         <v>2.8423298977038499E-5</v>
       </c>
-    </row>
-    <row r="86" spans="2:11">
+      <c r="N85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O85" s="8">
+        <v>2.8423298977038499E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15">
       <c r="B86" s="1" t="s">
         <v>26</v>
       </c>
@@ -3323,11 +3868,17 @@
       <c r="J86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="8">
         <v>2.70172710364607E-5</v>
       </c>
-    </row>
-    <row r="87" spans="2:11">
+      <c r="N86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O86" s="8">
+        <v>2.70172710364607E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15">
       <c r="B87" s="1" t="s">
         <v>8</v>
       </c>
@@ -3343,11 +3894,17 @@
       <c r="J87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K87" s="8">
         <v>2.5216480192521001E-5</v>
       </c>
-    </row>
-    <row r="88" spans="2:11">
+      <c r="N87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O87" s="8">
+        <v>2.5216480192521001E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15">
       <c r="B88" s="1" t="s">
         <v>7</v>
       </c>
@@ -3363,11 +3920,17 @@
       <c r="J88" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K88" s="8">
         <v>2.2452232763530998E-5</v>
       </c>
-    </row>
-    <row r="89" spans="2:11">
+      <c r="N88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O88" s="8">
+        <v>2.2452232763530998E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15">
       <c r="B89" s="1" t="s">
         <v>127</v>
       </c>
@@ -3383,11 +3946,17 @@
       <c r="J89" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K89" s="11">
+      <c r="K89" s="8">
         <v>1.97798565891029E-5</v>
       </c>
-    </row>
-    <row r="90" spans="2:11">
+      <c r="N89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O89" s="8">
+        <v>1.97798565891029E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15">
       <c r="B90" s="1" t="s">
         <v>128</v>
       </c>
@@ -3403,11 +3972,17 @@
       <c r="J90" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K90" s="11">
+      <c r="K90" s="8">
         <v>1.24595900421268E-5</v>
       </c>
-    </row>
-    <row r="91" spans="2:11">
+      <c r="N90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O90" s="8">
+        <v>1.24595900421268E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15">
       <c r="B91" s="1" t="s">
         <v>129</v>
       </c>
@@ -3423,11 +3998,17 @@
       <c r="J91" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K91" s="11">
+      <c r="K91" s="8">
         <v>9.5425776369000798E-6</v>
       </c>
-    </row>
-    <row r="92" spans="2:11">
+      <c r="N91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O91" s="8">
+        <v>9.5425776369000798E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15">
       <c r="F92" s="1" t="s">
         <v>45</v>
       </c>
@@ -3437,11 +4018,17 @@
       <c r="J92" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K92" s="11">
+      <c r="K92" s="8">
         <v>5.1341169629393799E-6</v>
       </c>
-    </row>
-    <row r="93" spans="2:11">
+      <c r="N92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O92" s="8">
+        <v>5.1341169629393799E-6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15">
       <c r="F93" s="1" t="s">
         <v>8</v>
       </c>
@@ -3449,7 +4036,7 @@
         <v>2.1130060000000002E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:15">
       <c r="F94" s="1" t="s">
         <v>7</v>
       </c>
@@ -3457,7 +4044,7 @@
         <v>7.5739407000000004E-4</v>
       </c>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:15">
       <c r="F95" s="1" t="s">
         <v>129</v>
       </c>
@@ -3465,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:15">
       <c r="F96" s="1" t="s">
         <v>127</v>
       </c>
@@ -3482,11 +4069,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="M21:M25"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="E14:E20"/>
     <mergeCell ref="E3:E10"/>
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="M14:M20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lendingrisk/新建 Microsoft Excel 工作表.xlsx
+++ b/lendingrisk/新建 Microsoft Excel 工作表.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD00CE0-DD7C-40BD-A52F-30A4F135BB54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881065B-4C77-438C-BA55-9FDF09C67FED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="149">
   <si>
     <t>column</t>
   </si>
@@ -447,6 +448,48 @@
   </si>
   <si>
     <t>重要特征+四则运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.632619978510622</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73441130689072</t>
+  </si>
+  <si>
+    <t>label_enc
+cross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continue_bin
+lebel_enc
+cross</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,8 +533,22 @@
       <name val="Var(--jp-code-font-family)"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +561,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -528,11 +597,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -565,6 +660,44 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1561,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F2285A-0580-4E4D-8803-3C6614005D3B}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4082,4 +4215,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C19AEF-B212-42A2-B6A6-9D7BF18D40F8}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="16"/>
+    <col min="5" max="5" width="23.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="14" customFormat="1" ht="32.4">
+      <c r="A1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" s="22" customFormat="1" ht="32.4">
+      <c r="A2" s="20"/>
+      <c r="B2" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="1:18" s="25" customFormat="1" ht="17.399999999999999">
+      <c r="A3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.69187878613340503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.72997009436355098</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lendingrisk/新建 Microsoft Excel 工作表.xlsx
+++ b/lendingrisk/新建 Microsoft Excel 工作表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881065B-4C77-438C-BA55-9FDF09C67FED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD622E12-EDED-4912-9528-9A936CAB77EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,6 +649,20 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,43 +675,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1773,7 +1773,7 @@
       <c r="C3" s="1">
         <v>0.15687483999999999</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="16" t="s">
         <v>130</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1788,7 +1788,7 @@
       <c r="K3" s="1">
         <v>8.6779473260664E-2</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="16" t="s">
         <v>138</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -1799,14 +1799,14 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="1">
         <v>0.10904612</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="1" t="s">
         <v>87</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="K4" s="1">
         <v>8.3156358646470196E-2</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="16"/>
       <c r="N4" s="1" t="s">
         <v>88</v>
       </c>
@@ -1828,14 +1828,14 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1.7676646000000001E-2</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="1" t="s">
         <v>88</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="K5" s="1">
         <v>7.7924457655247206E-2</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="1" t="s">
         <v>87</v>
       </c>
@@ -1857,14 +1857,14 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="1">
         <v>1.5471423E-2</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="K6" s="1">
         <v>5.8626868320961603E-2</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="16"/>
       <c r="N6" s="1" t="s">
         <v>101</v>
       </c>
@@ -1886,14 +1886,14 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="1">
         <v>1.4887176E-2</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="K7" s="1">
         <v>4.6898540701750799E-2</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="1" t="s">
         <v>129</v>
       </c>
@@ -1915,14 +1915,14 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>1.3480304E-2</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="1" t="s">
         <v>89</v>
       </c>
@@ -1935,7 +1935,7 @@
       <c r="K8" s="1">
         <v>4.5084838918122899E-2</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="1" t="s">
         <v>128</v>
       </c>
@@ -1944,14 +1944,14 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>1.3272760999999999E-2</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="K9" s="1">
         <v>4.2568888878130998E-2</v>
       </c>
-      <c r="M9" s="10"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1973,14 +1973,14 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="10"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="1">
         <v>1.2245466E-2</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="1" t="s">
         <v>90</v>
       </c>
@@ -1993,7 +1993,7 @@
       <c r="K10" s="1">
         <v>4.0034278152206802E-2</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="1" t="s">
         <v>91</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="11">
+      <c r="A14" s="17">
         <v>0.73441130689071998</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2089,7 +2089,7 @@
       <c r="C14" s="1">
         <v>6.3687893999999998E-3</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="18">
         <v>0.73510656551536202</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2104,7 +2104,7 @@
       <c r="K14" s="1">
         <v>2.6720790086233299E-2</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="18">
         <v>0.72997009436355098</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -2115,14 +2115,14 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>6.3161880000000004E-3</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="1" t="s">
         <v>96</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="K15" s="1">
         <v>2.6108165300773999E-2</v>
       </c>
-      <c r="M15" s="12"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="1" t="s">
         <v>104</v>
       </c>
@@ -2144,14 +2144,14 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="11"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>6.0761160000000003E-3</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="K16" s="1">
         <v>2.24612101712004E-2</v>
       </c>
-      <c r="M16" s="12"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="1" t="s">
         <v>94</v>
       </c>
@@ -2173,14 +2173,14 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="1">
         <v>6.0167494000000002E-3</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="K17" s="1">
         <v>2.0578158165285802E-2</v>
       </c>
-      <c r="M17" s="12"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="1" t="s">
         <v>7</v>
       </c>
@@ -2202,14 +2202,14 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="1">
         <v>5.856338E-3</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="K18" s="1">
         <v>1.8603863970834401E-2</v>
       </c>
-      <c r="M18" s="12"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="1" t="s">
         <v>127</v>
       </c>
@@ -2231,14 +2231,14 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="11"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="1">
         <v>5.7501499999999999E-3</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
@@ -2251,7 +2251,7 @@
       <c r="K19" s="1">
         <v>1.6565634807779901E-2</v>
       </c>
-      <c r="M19" s="12"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="1" t="s">
         <v>90</v>
       </c>
@@ -2260,14 +2260,14 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1">
         <v>5.6187412999999997E-3</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="1" t="s">
         <v>94</v>
       </c>
@@ -2280,7 +2280,7 @@
       <c r="K20" s="1">
         <v>1.5240059612740499E-2</v>
       </c>
-      <c r="M20" s="12"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="1" t="s">
         <v>107</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="K21" s="1">
         <v>1.45933149076039E-2</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="15">
         <v>0.72777140027012199</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -2336,7 +2336,7 @@
       <c r="K22" s="1">
         <v>1.2850105397304299E-2</v>
       </c>
-      <c r="M22" s="9"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="1" t="s">
         <v>43</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="K23" s="1">
         <v>1.14794267665998E-2</v>
       </c>
-      <c r="M23" s="9"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="K24" s="1">
         <v>1.0891291274876201E-2</v>
       </c>
-      <c r="M24" s="9"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="K25" s="1">
         <v>1.02821238073545E-2</v>
       </c>
-      <c r="M25" s="9"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="1" t="s">
         <v>103</v>
       </c>
@@ -4227,117 +4227,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="16"/>
-    <col min="5" max="5" width="23.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="15.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="11"/>
+    <col min="5" max="5" width="23.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="14" customFormat="1" ht="32.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:18" s="10" customFormat="1" ht="32.4">
+      <c r="A1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:18" s="22" customFormat="1" ht="32.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="26" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+    </row>
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="32.4">
+      <c r="A2" s="21"/>
+      <c r="B2" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-    </row>
-    <row r="3" spans="1:18" s="25" customFormat="1" ht="17.399999999999999">
-      <c r="A3" s="23"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" s="14" customFormat="1" ht="17.399999999999999">
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="12">
         <v>0.69187878613340503</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>0.72997009436355098</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -4348,8 +4339,18 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>